--- a/stahovanie/Mladež.turnaj. Hont. Nemce 1.2.2019.xlsx
+++ b/stahovanie/Mladež.turnaj. Hont. Nemce 1.2.2019.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="St.žiaci skupina" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dievčata staršie žiačky" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Mladší žiaci" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Konečné poradie Starší žiaci" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Konečné poradie Staršie žiačky" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Prezenčná Listina" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="St.žiaci skupina" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dievčata staršie žiačky" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Mladší žiaci" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Konečné poradie Starší žiaci" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Konečné poradie Staršie žiačky" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="105">
+  <si>
+    <t xml:space="preserve">Németi Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliač</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solčan Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balko Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krupina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohút Jakub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerovský Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvolenská Slatina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohút Radoslav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bzovík</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kocková Ema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hontianské Nemce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrášová Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrášová Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporišová Nela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesiarová Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukačková Lenka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nosáľ Damian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Štepiga Tadeáš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sluka Matúš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesiar Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohuš Simeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takács Christofer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konôpka Matúš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvolen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cekovec Matúš</t>
+  </si>
   <si>
     <t xml:space="preserve">Starší žiaci</t>
   </si>
@@ -80,12 +159,6 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Sliač</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solčan Denis</t>
-  </si>
-  <si>
     <t xml:space="preserve">1:3</t>
   </si>
   <si>
@@ -95,9 +168,6 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Balko Martin</t>
-  </si>
-  <si>
     <t xml:space="preserve">3:2</t>
   </si>
   <si>
@@ -110,15 +180,9 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Krupina</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Kohút Jakub</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:16</t>
   </si>
   <si>
@@ -131,9 +195,6 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Zvolenská Slatina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cekovec Marek</t>
   </si>
   <si>
@@ -143,24 +204,12 @@
     <t xml:space="preserve">Hontianske Nemce</t>
   </si>
   <si>
-    <t xml:space="preserve">Kocková Ema</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:21</t>
   </si>
   <si>
-    <t xml:space="preserve">Petrášová Laura</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:21</t>
   </si>
   <si>
-    <t xml:space="preserve">Bzovík</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohút Radoslav</t>
-  </si>
-  <si>
     <t xml:space="preserve">17:11</t>
   </si>
   <si>
@@ -173,39 +222,33 @@
     <t xml:space="preserve">Mladší žiaci</t>
   </si>
   <si>
-    <t xml:space="preserve">Sporišová Nela</t>
-  </si>
-  <si>
     <t xml:space="preserve">XXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konôpka Matúš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zvolen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Štepiga Tadeáš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/4</t>
+    <t xml:space="preserve">10:7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:9</t>
   </si>
   <si>
     <t xml:space="preserve">Takacs Christopher</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesiarová Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0/0</t>
+    <t xml:space="preserve">0:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:12</t>
   </si>
   <si>
     <t xml:space="preserve">Lukáčová Lenka</t>
   </si>
   <si>
+    <t xml:space="preserve">15:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">(1-3)</t>
   </si>
   <si>
@@ -233,33 +276,15 @@
     <t xml:space="preserve">13:3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cekovec Matúš</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:12</t>
   </si>
   <si>
-    <t xml:space="preserve">Nosáľ Damian</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:4</t>
   </si>
   <si>
     <t xml:space="preserve">Mesiar Samuel </t>
   </si>
   <si>
-    <t xml:space="preserve">0:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bohuš Simeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrášová Sofia</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:11</t>
   </si>
   <si>
@@ -290,25 +315,16 @@
     <t xml:space="preserve">1.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerovský Oliver</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.</t>
   </si>
   <si>
     <t xml:space="preserve">3.</t>
   </si>
   <si>
-    <t xml:space="preserve">Németi Daniel</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.</t>
   </si>
   <si>
     <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hontianské Nemce</t>
   </si>
   <si>
     <t xml:space="preserve">6.</t>
@@ -541,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -562,6 +578,34 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -653,13 +697,6 @@
       <right/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -893,13 +930,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -935,196 +965,220 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,15 +1194,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,7 +1218,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,7 +1234,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,27 +1302,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,102 +1319,118 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1396,15 +1450,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1432,19 +1486,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1540,9 +1594,260 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normálne"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normálne"&amp;12Strana &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1556,923 +1861,923 @@
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="F6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
+      <c r="B8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28"/>
+      <c r="B24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3577,7 +3882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3598,416 +3903,416 @@
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="E4" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="F4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="B5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51"/>
-      <c r="B6" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51"/>
-      <c r="B8" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="67"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5011,15 +5316,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5028,7 +5333,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="9.68"/>
@@ -5037,1396 +5342,1408 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="78" t="s">
+      <c r="G6" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="92"/>
+      <c r="B7" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="99"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="101"/>
+      <c r="B9" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="92"/>
+      <c r="B11" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="101"/>
+      <c r="B13" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="92"/>
+      <c r="B15" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="112"/>
+      <c r="B17" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="116"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="115"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="118"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="117"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
+      <c r="E23" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="80" t="n">
+      <c r="F23" s="87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="81" t="n">
+      <c r="B24" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="92"/>
+      <c r="B25" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="101" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="81" t="n">
+      <c r="B26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="101"/>
+      <c r="B27" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="106"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="82" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="84" t="s">
+      <c r="B28" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="93"/>
+      <c r="D28" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="92"/>
+      <c r="B29" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="101"/>
+      <c r="B31" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" s="50" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="92"/>
+      <c r="B33" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+    </row>
+    <row r="34" s="50" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="112"/>
+      <c r="B35" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="89" t="s">
+      <c r="C35" s="116"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="115"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="117"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="118"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="71"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="41"/>
+      <c r="B40" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="35"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="41"/>
+      <c r="B42" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="124"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="124"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="41"/>
+      <c r="B45" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="50"/>
+    </row>
+    <row r="46" s="50" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="35"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86"/>
-      <c r="B7" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="96" t="s">
+      <c r="D46" s="119"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" s="50" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="41"/>
+      <c r="B47" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="95"/>
-      <c r="B9" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86"/>
-      <c r="B11" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="95"/>
-      <c r="B13" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="86"/>
-      <c r="B15" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="106"/>
-      <c r="B17" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="109"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="112"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="111"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="81" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="82" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="86"/>
-      <c r="B25" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="93"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="90" t="s">
+      <c r="C47" s="124"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="95"/>
-      <c r="B27" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="100"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="86"/>
-      <c r="B29" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="95"/>
-      <c r="B31" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="100"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="86"/>
-      <c r="B33" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-    </row>
-    <row r="34" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="106"/>
-      <c r="B35" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="109"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="111"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="112"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="65"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="30" t="s">
+      <c r="G47" s="124"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="44"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35"/>
-      <c r="B40" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="115" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35"/>
-      <c r="B42" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="118"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="119"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35"/>
-      <c r="B45" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="44"/>
-    </row>
-    <row r="46" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="113"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="117" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35"/>
-      <c r="B47" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="118"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="K47" s="118"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="111"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="33"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="111"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="44"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="123"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="44"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="44"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="111"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
+      <c r="A70" s="117"/>
+      <c r="B70" s="118"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="33"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="44"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="29"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="44"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="123"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="128"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="44"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="129"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="44"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="112"/>
-      <c r="G81" s="112"/>
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="112"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="118"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7521,7 +7838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7543,146 +7860,146 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="132" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>18</v>
+      <c r="C7" s="133" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>43</v>
+      <c r="A8" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="132" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>94</v>
+      <c r="A9" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>28</v>
+      <c r="A10" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>43</v>
+      <c r="A11" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="132" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>94</v>
+      <c r="A12" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>18</v>
+      <c r="A13" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8676,14 +8993,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -8696,49 +9013,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>86</v>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>43</v>
+      <c r="A4" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>47</v>
+      <c r="A5" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
